--- a/日常收支明细表.xlsx
+++ b/日常收支明细表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="12630" activeTab="3"/>
+    <workbookView windowWidth="16695" windowHeight="7860" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="7月" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>时间</t>
   </si>
@@ -239,6 +239,15 @@
   </si>
   <si>
     <t>泡面</t>
+  </si>
+  <si>
+    <t>水费</t>
+  </si>
+  <si>
+    <t>八月份水费</t>
+  </si>
+  <si>
+    <t>面、豆角、洋葱、肉</t>
   </si>
 </sst>
 </file>
@@ -257,13 +266,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,13 +318,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,7 +378,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,9 +406,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,6 +422,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -437,66 +596,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -504,96 +603,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,10 +721,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,133 +733,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2060,11 +2069,12 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
+    <col min="1" max="1" width="9.125"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="39.5" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
@@ -2108,7 +2118,7 @@
       </c>
       <c r="G2" s="2">
         <f>SUM(D2:D100)</f>
-        <v>106.3</v>
+        <v>140.3</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:7">
@@ -2126,7 +2136,7 @@
       </c>
       <c r="G3" s="2" t="str">
         <f>IMSUB(G1,G2)</f>
-        <v>-106.3</v>
+        <v>-140.3</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:7">
@@ -2153,11 +2163,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:1">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" customFormat="1" spans="1:1">
-      <c r="A7" s="1"/>
+    <row r="6" customFormat="1" spans="1:5">
+      <c r="A6" s="1">
+        <v>43024</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:5">
+      <c r="A7" s="1">
+        <v>43030</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/日常收支明细表.xlsx
+++ b/日常收支明细表.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16695" windowHeight="7860" activeTab="3"/>
+    <workbookView windowWidth="15615" windowHeight="8730" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="7月" sheetId="1" r:id="rId1"/>
     <sheet name="8月" sheetId="2" r:id="rId2"/>
     <sheet name="9月" sheetId="3" r:id="rId3"/>
     <sheet name="10月" sheetId="4" r:id="rId4"/>
+    <sheet name="11月" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>时间</t>
   </si>
@@ -248,6 +249,15 @@
   </si>
   <si>
     <t>面、豆角、洋葱、肉</t>
+  </si>
+  <si>
+    <t>房租</t>
+  </si>
+  <si>
+    <t>11月8</t>
+  </si>
+  <si>
+    <t>9月至11月1号</t>
   </si>
 </sst>
 </file>
@@ -255,9 +265,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -269,9 +279,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,6 +296,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,7 +341,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,7 +349,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,7 +365,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,20 +401,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -422,13 +432,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,7 +528,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,19 +540,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,103 +594,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,6 +623,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -633,24 +652,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,13 +676,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,10 +731,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,133 +743,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2066,13 +2076,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.125"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
@@ -2191,6 +2201,133 @@
         <v>76</v>
       </c>
     </row>
+    <row r="16" spans="8:9">
+      <c r="H16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9">
+      <c r="H17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17">
+        <f>70+1534+1534</f>
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9">
+      <c r="H18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18">
+        <f>-70-1534</f>
+        <v>-1604</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9">
+      <c r="H19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19">
+        <v>-1534</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>43040</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2">
+        <v>4600</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2">
+        <f>SUM(D2:D100)</f>
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3">
+        <v>420</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f>IMSUB(G1,G2)</f>
+        <v>-5020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1"/>
+      <c r="B4"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/日常收支明细表.xlsx
+++ b/日常收支明细表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15615" windowHeight="8730" activeTab="4"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="7月" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="9月" sheetId="3" r:id="rId3"/>
     <sheet name="10月" sheetId="4" r:id="rId4"/>
     <sheet name="11月" sheetId="5" r:id="rId5"/>
+    <sheet name="12月" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -254,7 +255,7 @@
     <t>房租</t>
   </si>
   <si>
-    <t>11月8</t>
+    <t>米、洗衣粉、菜</t>
   </si>
   <si>
     <t>9月至11月1号</t>
@@ -265,10 +266,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -286,49 +287,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -340,34 +302,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -387,6 +326,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -401,9 +355,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,13 +423,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -438,181 +439,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,6 +632,71 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,71 +718,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -731,10 +732,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,133 +744,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2244,15 +2245,17 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="9.125"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="12" max="12" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2280,41 +2283,184 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>43040</v>
+        <v>43051</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="D2">
-        <v>4600</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(D2:D100)</f>
-        <v>5020</v>
+        <v>154.8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>420</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>IMSUB(G1,G2)</f>
-        <v>-5020</v>
+        <v>-154.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>43064</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4">
+        <v>108.8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="11" spans="9:11">
+      <c r="I11" s="1">
+        <v>43040</v>
+      </c>
+      <c r="J11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="12" spans="9:12">
+      <c r="I12" s="1">
+        <v>43047</v>
+      </c>
+      <c r="J12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12">
+        <v>420</v>
+      </c>
+      <c r="L12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="9:10">
+      <c r="I15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15">
+        <v>3423.6</v>
+      </c>
+    </row>
+    <row r="16" spans="9:10">
+      <c r="I16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16">
+        <f>-77-1673.3</f>
+        <v>-1750.3</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10">
+      <c r="I17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17">
+        <v>-1673.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="32.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>43071</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2">
+        <v>22.4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2">
+        <f>SUM(D2:D100)</f>
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <v>8.5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f>IMSUB(G1,G2)</f>
+        <v>-30.9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2322,11 +2468,22 @@
       <c r="B4"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1"/>
-    </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1"/>
+    </row>
+    <row r="11" spans="9:11">
+      <c r="I11" s="1">
+        <v>43071</v>
+      </c>
+      <c r="J11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="12" spans="9:9">
+      <c r="I12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
